--- a/CalculateClientSecurityHash/Data/Config.xlsx
+++ b/CalculateClientSecurityHash/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Documents\UiPath\CalculateClientSecurityHash\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Documents\GitHub\UiPath\CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2897DA8-0C22-4E2E-B47C-D7F3037D2D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999EEC01-953E-4AA5-9523-C52CEFD3ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
     <t>SHA1_URL</t>
   </si>
   <si>
-    <t>http://www.sha1-online.com/</t>
+    <t>https://codebeautify.org/sha1-hash-generator</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/CalculateClientSecurityHash/Data/Config.xlsx
+++ b/CalculateClientSecurityHash/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Documents\GitHub\UiPath\CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999EEC01-953E-4AA5-9523-C52CEFD3ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02055EA-0062-4D99-A3E7-70337C7628EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>https://codebeautify.org/sha1-hash-generator</t>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\ACME-WorkItems.xlsx</t>
   </si>
 </sst>
 </file>
@@ -547,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -632,7 +638,14 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
